--- a/wireframe.xlsx
+++ b/wireframe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emvan\GitHub_Repos\My_First_Multi_Page_Responsive_Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F97B227-53C8-4761-BD35-F41246F5B4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C19CBAE-732B-4918-B631-22603E838ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{AA3F40F2-1787-4AB6-A0CC-FF26B0CC094A}"/>
+    <workbookView xWindow="19090" yWindow="-1160" windowWidth="25820" windowHeight="15500" xr2:uid="{AA3F40F2-1787-4AB6-A0CC-FF26B0CC094A}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Play1-Logic" sheetId="2" r:id="rId3"/>
     <sheet name="Play2-Play" sheetId="3" r:id="rId4"/>
     <sheet name="Play3-Crafts" sheetId="4" r:id="rId5"/>
-    <sheet name="Amazon" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
   <si>
     <t>Logo</t>
   </si>
@@ -58,9 +57,6 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Amazon Storefront</t>
-  </si>
-  <si>
     <t>3 slides showcasing learning through play for different ages from my different channels/sites (links to page)</t>
   </si>
   <si>
@@ -133,15 +129,6 @@
     <t>Logical Game 6</t>
   </si>
   <si>
-    <t>Logical Game 7</t>
-  </si>
-  <si>
-    <t>Logical Game 8</t>
-  </si>
-  <si>
-    <t>Logical Game 9</t>
-  </si>
-  <si>
     <t>Indoor Activities/Outdoor/Messy Play 1</t>
   </si>
   <si>
@@ -160,15 +147,6 @@
     <t>Indoor Activities/Outdoor/Messy Play 6</t>
   </si>
   <si>
-    <t>Indoor Activities/Outdoor/Messy Play 7</t>
-  </si>
-  <si>
-    <t>Indoor Activities/Outdoor/Messy Play 8</t>
-  </si>
-  <si>
-    <t>Indoor Activities/Outdoor/Messy Play 9</t>
-  </si>
-  <si>
     <t>Arts &amp; Crafts 1</t>
   </si>
   <si>
@@ -187,28 +165,13 @@
     <t>Arts &amp; Crafts 6</t>
   </si>
   <si>
-    <t>Arts &amp; Crafts 7</t>
-  </si>
-  <si>
-    <t>Arts &amp; Crafts 8</t>
-  </si>
-  <si>
-    <t>Arts &amp; Crafts 9</t>
-  </si>
-  <si>
-    <t>Play Ideas</t>
-  </si>
-  <si>
     <t>About Creating As We Grow</t>
   </si>
   <si>
-    <t>Amazon idea lists</t>
-  </si>
-  <si>
-    <t>Shop</t>
-  </si>
-  <si>
     <t>link to Amazon Page</t>
+  </si>
+  <si>
+    <t>copyright 2026 ©</t>
   </si>
 </sst>
 </file>
@@ -339,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -353,6 +316,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,36 +654,33 @@
   <dimension ref="B2:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="12.453125" customWidth="1"/>
+    <col min="1" max="13" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
       <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -732,51 +693,51 @@
       <c r="K4" s="2"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -789,46 +750,46 @@
       <c r="K13" s="7"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="F16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
       <c r="J16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="5"/>
       <c r="F17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="5"/>
       <c r="J17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="D18" s="5"/>
       <c r="F18" s="4"/>
@@ -836,7 +797,7 @@
       <c r="J18" s="4"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="D19" s="5"/>
       <c r="F19" s="4"/>
@@ -844,7 +805,7 @@
       <c r="J19" s="4"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="D20" s="5"/>
       <c r="F20" s="4"/>
@@ -852,7 +813,7 @@
       <c r="J20" s="4"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="D21" s="5"/>
       <c r="F21" s="4"/>
@@ -860,7 +821,7 @@
       <c r="J21" s="4"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="D22" s="5"/>
       <c r="F22" s="4"/>
@@ -868,24 +829,24 @@
       <c r="J22" s="4"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="5"/>
       <c r="F23" s="4"/>
       <c r="G23" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H23" s="5"/>
       <c r="J23" s="4"/>
       <c r="K23" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
@@ -896,10 +857,10 @@
       <c r="K24" s="7"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -907,39 +868,39 @@
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
       <c r="I26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="G27" s="5"/>
       <c r="I27" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="G28" s="5"/>
       <c r="I28" s="4"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="G29" s="5"/>
       <c r="I29" s="4"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="G30" s="5"/>
       <c r="I30" s="4"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -949,13 +910,13 @@
       <c r="I31" s="4"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I32" s="4"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -965,33 +926,33 @@
       <c r="I33" s="4"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G34" s="5"/>
       <c r="I34" s="4"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="G35" s="5"/>
       <c r="I35" s="4"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="G36" s="5"/>
       <c r="I36" s="4"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="G37" s="5"/>
       <c r="I37" s="4"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1003,23 +964,23 @@
       <c r="K38" s="7"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" t="s">
         <v>7</v>
       </c>
-      <c r="H40" t="s">
-        <v>8</v>
-      </c>
       <c r="I40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1029,184 +990,419 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6BB9B0-4B84-4B35-9191-C4CCF4E28D83}">
-  <dimension ref="B2:L42"/>
+  <dimension ref="A2:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="12.453125" customWidth="1"/>
+    <col min="1" max="13" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="4"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="4"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="4"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="4"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="4"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="4"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="4"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="4"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="4"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="4"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="4"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="4"/>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="4"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="4"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="4"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="4"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="4"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B23" s="4"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="4"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="4"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="4"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="4"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="4"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="4"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B30" s="4"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="8"/>
-    </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" t="s">
         <v>7</v>
       </c>
-      <c r="H40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="G42" t="s">
-        <v>22</v>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1216,56 +1412,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1B74EF-A00F-4A71-823D-A1D850E92734}">
-  <dimension ref="B2:L42"/>
+  <dimension ref="B2:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="12.453125" customWidth="1"/>
+    <col min="1" max="13" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="D6" s="5"/>
       <c r="F6" s="4"/>
@@ -1273,7 +1466,7 @@
       <c r="J6" s="4"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="D7" s="5"/>
       <c r="F7" s="4"/>
@@ -1281,7 +1474,7 @@
       <c r="J7" s="4"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="D8" s="5"/>
       <c r="F8" s="4"/>
@@ -1289,7 +1482,7 @@
       <c r="J8" s="4"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="D9" s="5"/>
       <c r="F9" s="4"/>
@@ -1297,7 +1490,7 @@
       <c r="J9" s="4"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="D10" s="5"/>
       <c r="F10" s="4"/>
@@ -1305,7 +1498,7 @@
       <c r="J10" s="4"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="D11" s="5"/>
       <c r="F11" s="4"/>
@@ -1313,24 +1506,24 @@
       <c r="J11" s="4"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="4"/>
       <c r="G12" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="5"/>
       <c r="J12" s="4"/>
       <c r="K12" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
@@ -1341,25 +1534,25 @@
       <c r="K13" s="7"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="F15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="D16" s="5"/>
       <c r="F16" s="4"/>
@@ -1367,7 +1560,7 @@
       <c r="J16" s="4"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="D17" s="5"/>
       <c r="F17" s="4"/>
@@ -1375,7 +1568,7 @@
       <c r="J17" s="4"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="D18" s="5"/>
       <c r="F18" s="4"/>
@@ -1383,7 +1576,7 @@
       <c r="J18" s="4"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="D19" s="5"/>
       <c r="F19" s="4"/>
@@ -1391,7 +1584,7 @@
       <c r="J19" s="4"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="D20" s="5"/>
       <c r="F20" s="4"/>
@@ -1399,7 +1592,7 @@
       <c r="J20" s="4"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="D21" s="5"/>
       <c r="F21" s="4"/>
@@ -1407,24 +1600,24 @@
       <c r="J21" s="4"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="5"/>
       <c r="F22" s="4"/>
       <c r="G22" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H22" s="5"/>
       <c r="J22" s="4"/>
       <c r="K22" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
@@ -1435,117 +1628,23 @@
       <c r="K23" s="7"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="F25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-      <c r="J25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="F26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="J26" s="4"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="F27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="J27" s="4"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="F28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="J28" s="4"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="F29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="J29" s="4"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="F30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="J30" s="4"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="F31" s="4"/>
-      <c r="H31" s="5"/>
-      <c r="J31" s="4"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="4"/>
-      <c r="C32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="5"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" t="s">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" t="s">
         <v>7</v>
       </c>
-      <c r="H40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="G42" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1555,56 +1654,53 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C355D5B-B475-49FC-AED6-7E9FC4155F75}">
-  <dimension ref="B2:L42"/>
+  <dimension ref="B2:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="12.453125" customWidth="1"/>
+    <col min="1" max="13" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="D6" s="5"/>
       <c r="F6" s="4"/>
@@ -1612,7 +1708,7 @@
       <c r="J6" s="4"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="D7" s="5"/>
       <c r="F7" s="4"/>
@@ -1620,7 +1716,7 @@
       <c r="J7" s="4"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="D8" s="5"/>
       <c r="F8" s="4"/>
@@ -1628,7 +1724,7 @@
       <c r="J8" s="4"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="D9" s="5"/>
       <c r="F9" s="4"/>
@@ -1636,7 +1732,7 @@
       <c r="J9" s="4"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="D10" s="5"/>
       <c r="F10" s="4"/>
@@ -1644,7 +1740,7 @@
       <c r="J10" s="4"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="D11" s="5"/>
       <c r="F11" s="4"/>
@@ -1652,24 +1748,24 @@
       <c r="J11" s="4"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="4"/>
       <c r="G12" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="5"/>
       <c r="J12" s="4"/>
       <c r="K12" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
@@ -1680,25 +1776,25 @@
       <c r="K13" s="7"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="F15" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="D16" s="5"/>
       <c r="F16" s="4"/>
@@ -1706,7 +1802,7 @@
       <c r="J16" s="4"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="D17" s="5"/>
       <c r="F17" s="4"/>
@@ -1714,7 +1810,7 @@
       <c r="J17" s="4"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="D18" s="5"/>
       <c r="F18" s="4"/>
@@ -1722,7 +1818,7 @@
       <c r="J18" s="4"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="D19" s="5"/>
       <c r="F19" s="4"/>
@@ -1730,7 +1826,7 @@
       <c r="J19" s="4"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="D20" s="5"/>
       <c r="F20" s="4"/>
@@ -1738,7 +1834,7 @@
       <c r="J20" s="4"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="D21" s="5"/>
       <c r="F21" s="4"/>
@@ -1746,24 +1842,24 @@
       <c r="J21" s="4"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="5"/>
       <c r="F22" s="4"/>
       <c r="G22" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H22" s="5"/>
       <c r="J22" s="4"/>
       <c r="K22" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
@@ -1774,117 +1870,23 @@
       <c r="K23" s="7"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="F25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-      <c r="J25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="F26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="J26" s="4"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="F27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="J27" s="4"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="F28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="J28" s="4"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="F29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="J29" s="4"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="F30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="J30" s="4"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="F31" s="4"/>
-      <c r="H31" s="5"/>
-      <c r="J31" s="4"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="4"/>
-      <c r="C32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="5"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" t="s">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" t="s">
         <v>7</v>
       </c>
-      <c r="H40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="G42" t="s">
-        <v>22</v>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1894,56 +1896,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2746FE12-8835-41BF-A80C-B8A3B40DC7FC}">
-  <dimension ref="B2:L42"/>
+  <dimension ref="B2:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="12.453125" customWidth="1"/>
+    <col min="1" max="13" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="F5" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="D6" s="5"/>
       <c r="F6" s="4"/>
@@ -1951,7 +1950,7 @@
       <c r="J6" s="4"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="D7" s="5"/>
       <c r="F7" s="4"/>
@@ -1959,7 +1958,7 @@
       <c r="J7" s="4"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="D8" s="5"/>
       <c r="F8" s="4"/>
@@ -1967,7 +1966,7 @@
       <c r="J8" s="4"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="D9" s="5"/>
       <c r="F9" s="4"/>
@@ -1975,7 +1974,7 @@
       <c r="J9" s="4"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="D10" s="5"/>
       <c r="F10" s="4"/>
@@ -1983,7 +1982,7 @@
       <c r="J10" s="4"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="D11" s="5"/>
       <c r="F11" s="4"/>
@@ -1991,24 +1990,24 @@
       <c r="J11" s="4"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="4"/>
       <c r="G12" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="5"/>
       <c r="J12" s="4"/>
       <c r="K12" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
@@ -2019,25 +2018,25 @@
       <c r="K13" s="7"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="F15" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="D16" s="5"/>
       <c r="F16" s="4"/>
@@ -2045,7 +2044,7 @@
       <c r="J16" s="4"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="D17" s="5"/>
       <c r="F17" s="4"/>
@@ -2053,7 +2052,7 @@
       <c r="J17" s="4"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="D18" s="5"/>
       <c r="F18" s="4"/>
@@ -2061,7 +2060,7 @@
       <c r="J18" s="4"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="D19" s="5"/>
       <c r="F19" s="4"/>
@@ -2069,7 +2068,7 @@
       <c r="J19" s="4"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="D20" s="5"/>
       <c r="F20" s="4"/>
@@ -2077,7 +2076,7 @@
       <c r="J20" s="4"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="D21" s="5"/>
       <c r="F21" s="4"/>
@@ -2085,24 +2084,24 @@
       <c r="J21" s="4"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="5"/>
       <c r="F22" s="4"/>
       <c r="G22" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H22" s="5"/>
       <c r="J22" s="4"/>
       <c r="K22" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
@@ -2113,456 +2112,23 @@
       <c r="K23" s="7"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="F25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-      <c r="J25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="F26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="J26" s="4"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="F27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="J27" s="4"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="F28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="J28" s="4"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="F29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="J29" s="4"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="F30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="J30" s="4"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="F31" s="4"/>
-      <c r="H31" s="5"/>
-      <c r="J31" s="4"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="4"/>
-      <c r="C32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="5"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" t="s">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" t="s">
         <v>7</v>
       </c>
-      <c r="H40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="G42" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4719AB46-42BA-4A6A-963E-93E3CA828565}">
-  <dimension ref="B2:L42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="13" width="12.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="F5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="J6" s="4"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="J7" s="4"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="J8" s="4"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="F9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="J9" s="4"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="F10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="J10" s="4"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="F11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="J11" s="4"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="4"/>
-      <c r="C12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="J15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="F16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="J16" s="4"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="F17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="J17" s="4"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="F18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="J18" s="4"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="F19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="J19" s="4"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="F20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="J20" s="4"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="F21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="J21" s="4"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="F25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-      <c r="J25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="F26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="J26" s="4"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="F27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="J27" s="4"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="F28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="J28" s="4"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="F29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="J29" s="4"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="F30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="J30" s="4"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="F31" s="4"/>
-      <c r="H31" s="5"/>
-      <c r="J31" s="4"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="4"/>
-      <c r="C32" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="5"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="G42" t="s">
-        <v>22</v>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/wireframe.xlsx
+++ b/wireframe.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emvan\GitHub_Repos\My_First_Multi_Page_Responsive_Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C19CBAE-732B-4918-B631-22603E838ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E107AD2-6C49-413D-AABA-0266F5C3418B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-1160" windowWidth="25820" windowHeight="15500" xr2:uid="{AA3F40F2-1787-4AB6-A0CC-FF26B0CC094A}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
-    <sheet name="About" sheetId="5" r:id="rId2"/>
-    <sheet name="Play1-Logic" sheetId="2" r:id="rId3"/>
-    <sheet name="Play2-Play" sheetId="3" r:id="rId4"/>
-    <sheet name="Play3-Crafts" sheetId="4" r:id="rId5"/>
+    <sheet name="Contact" sheetId="7" r:id="rId2"/>
+    <sheet name="About" sheetId="5" r:id="rId3"/>
+    <sheet name="Play1-Logic" sheetId="2" r:id="rId4"/>
+    <sheet name="Play2-Play" sheetId="3" r:id="rId5"/>
+    <sheet name="Play3-Crafts" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="37">
   <si>
     <t>Logo</t>
   </si>
@@ -48,18 +49,12 @@
     <t>Home</t>
   </si>
   <si>
-    <t>Services</t>
-  </si>
-  <si>
     <t>About</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>3 slides showcasing learning through play for different ages from my different channels/sites (links to page)</t>
-  </si>
-  <si>
     <t>Instagram</t>
   </si>
   <si>
@@ -69,9 +64,6 @@
     <t>Facebook</t>
   </si>
   <si>
-    <t>&lt;    Scroll through banner    &gt;</t>
-  </si>
-  <si>
     <t>Logical games</t>
   </si>
   <si>
@@ -120,15 +112,6 @@
     <t>Read More</t>
   </si>
   <si>
-    <t>Logical Game 4</t>
-  </si>
-  <si>
-    <t>Logical Game 5</t>
-  </si>
-  <si>
-    <t>Logical Game 6</t>
-  </si>
-  <si>
     <t>Indoor Activities/Outdoor/Messy Play 1</t>
   </si>
   <si>
@@ -138,15 +121,6 @@
     <t>Indoor Activities/Outdoor/Messy Play 3</t>
   </si>
   <si>
-    <t>Indoor Activities/Outdoor/Messy Play 4</t>
-  </si>
-  <si>
-    <t>Indoor Activities/Outdoor/Messy Play 5</t>
-  </si>
-  <si>
-    <t>Indoor Activities/Outdoor/Messy Play 6</t>
-  </si>
-  <si>
     <t>Arts &amp; Crafts 1</t>
   </si>
   <si>
@@ -156,15 +130,6 @@
     <t>Arts &amp; Crafts 3</t>
   </si>
   <si>
-    <t>Arts &amp; Crafts 4</t>
-  </si>
-  <si>
-    <t>Arts &amp; Crafts 5</t>
-  </si>
-  <si>
-    <t>Arts &amp; Crafts 6</t>
-  </si>
-  <si>
     <t>About Creating As We Grow</t>
   </si>
   <si>
@@ -172,6 +137,21 @@
   </si>
   <si>
     <t>copyright 2026 ©</t>
+  </si>
+  <si>
+    <t>Logical</t>
+  </si>
+  <si>
+    <t>Playful</t>
+  </si>
+  <si>
+    <t>Crafty</t>
+  </si>
+  <si>
+    <t>Banner</t>
+  </si>
+  <si>
+    <t>Contact Form</t>
   </si>
 </sst>
 </file>
@@ -654,7 +634,7 @@
   <dimension ref="B2:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,22 +646,30 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -695,9 +683,6 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -706,23 +691,14 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -752,40 +728,38 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F14" s="9"/>
-      <c r="G14" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
       <c r="J16" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D17" s="5"/>
       <c r="F17" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H17" s="5"/>
       <c r="J17" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L17" s="5"/>
     </row>
@@ -832,17 +806,17 @@
     <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D23" s="5"/>
       <c r="F23" s="4"/>
       <c r="G23" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H23" s="5"/>
       <c r="J23" s="4"/>
       <c r="K23" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L23" s="5"/>
     </row>
@@ -860,7 +834,7 @@
     <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -868,7 +842,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
       <c r="I26" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -878,7 +852,7 @@
       <c r="B27" s="4"/>
       <c r="G27" s="5"/>
       <c r="I27" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L27" s="5"/>
     </row>
@@ -916,7 +890,7 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -928,7 +902,7 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G34" s="5"/>
       <c r="I34" s="4"/>
@@ -966,21 +940,18 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -989,433 +960,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6BB9B0-4B84-4B35-9191-C4CCF4E28D83}">
-  <dimension ref="A2:M31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="13" width="12.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1B74EF-A00F-4A71-823D-A1D850E92734}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3700F94B-AAB7-4BEA-8CFD-1ABDE0376426}">
   <dimension ref="B2:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,33 +976,633 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
       <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C7" s="4"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="4"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C9" s="4"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6BB9B0-4B84-4B35-9191-C4CCF4E28D83}">
+  <dimension ref="B2:L31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="13" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
       <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>2</v>
       </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C7" s="4"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="4"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C9" s="4"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1B74EF-A00F-4A71-823D-A1D850E92734}">
+  <dimension ref="B2:L31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="13" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
       <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
         <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="3"/>
@@ -1509,17 +1658,17 @@
     <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="4"/>
       <c r="G12" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H12" s="5"/>
       <c r="J12" s="4"/>
       <c r="K12" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L12" s="5"/>
     </row>
@@ -1534,117 +1683,20 @@
       <c r="K13" s="7"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="J15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="F16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="J16" s="4"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="F17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="J17" s="4"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="F18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="J18" s="4"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="F19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="J19" s="4"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="F20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="J20" s="4"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="F21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="J21" s="4"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1652,12 +1704,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C355D5B-B475-49FC-AED6-7E9FC4155F75}">
   <dimension ref="B2:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D2" sqref="D2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,33 +1721,39 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="3"/>
@@ -1751,17 +1809,17 @@
     <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="4"/>
       <c r="G12" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H12" s="5"/>
       <c r="J12" s="4"/>
       <c r="K12" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L12" s="5"/>
     </row>
@@ -1776,117 +1834,20 @@
       <c r="K13" s="7"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="J15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="F16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="J16" s="4"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="F17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="J17" s="4"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="F18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="J18" s="4"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="F19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="J19" s="4"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="F20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="J20" s="4"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="F21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="J21" s="4"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1894,12 +1855,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2746FE12-8835-41BF-A80C-B8A3B40DC7FC}">
   <dimension ref="B2:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="D2" sqref="D2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,33 +1872,39 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="3"/>
@@ -1993,17 +1960,17 @@
     <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="4"/>
       <c r="G12" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H12" s="5"/>
       <c r="J12" s="4"/>
       <c r="K12" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L12" s="5"/>
     </row>
@@ -2018,117 +1985,20 @@
       <c r="K13" s="7"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="J15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="F16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="J16" s="4"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="F17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="J17" s="4"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="F18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="J18" s="4"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="F19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="J19" s="4"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="F20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="J20" s="4"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="F21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="J21" s="4"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
